--- a/Automate the boring stuff with python/Ceaser cypher in xl.xlsx
+++ b/Automate the boring stuff with python/Ceaser cypher in xl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Science-Experiments\Automate the boring stuff with python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA97724-CD5A-4123-8D2D-8F49877EE8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63D68D5-684A-4E4E-B485-9C6E272C60B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{0DFA8D09-464D-452E-9D4B-2CA834CD8920}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,7 +572,7 @@
         <v>P</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="C7:N7" si="1">CHAR(D6+64)</f>
+        <f t="shared" ref="D7:N7" si="1">CHAR(D6+64)</f>
         <v>S</v>
       </c>
       <c r="E7" t="str">
